--- a/artfynd/Junkásavvun artfynd.xlsx
+++ b/artfynd/Junkásavvun artfynd.xlsx
@@ -413,14 +413,986 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Taxonsorteringsordning</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Valideringsstatus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Rödlistade</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>TaxonId</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Artnamn</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Vetenskapligt namn</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Auktor</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Antal</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Enhet</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Ålder-Stadium</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Kön</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Aktivitet</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Metod</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Huvudlokal</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Lokalnamn</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Ost</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Noggrannhet</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Län</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Kommun</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Provins</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Socken</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Externid</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Startdatum</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Starttid</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Slutdatum</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Sluttid</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Publik kommentar</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Ej återfunnen</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Osäker artbestämning</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Bestämningsmetod</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Ospontan</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Biotop</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Biotop-beskrivning</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Substratnamn</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>Vetenskapligt Substratnamn</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Art som substrat beskrivning</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>Substrat</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Antal substrat</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>Substrat-beskrivning</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Offentlig samling</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>Privat samling</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>Samlings-nummer</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Artbestämd av</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>Bestämningsår</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Bekräftad av</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Bekräftelseår</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Rapportör</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>Observatörer</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>Projektnamn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>91818737</v>
+      </c>
+      <c r="B2" t="n">
+        <v>91791</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Varjisån-övre, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>715619</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7330629</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Sture Westerberg</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Håkan Falk</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>91821711</v>
+      </c>
+      <c r="B3" t="n">
+        <v>91791</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Abessinien, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>716275</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7330019</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Sture Westerberg</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Håkan Falk</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>91821716</v>
+      </c>
+      <c r="B4" t="n">
+        <v>91767</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>149</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tallgråticka</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Boletopsis grisea</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Peck) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Abessinien, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>716208</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7329980</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Sture Westerberg</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Håkan Falk</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>91821722</v>
+      </c>
+      <c r="B5" t="n">
+        <v>91795</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Abessinien, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>716212</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7329981</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Sture Westerberg</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Håkan Falk</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>91821723</v>
+      </c>
+      <c r="B6" t="n">
+        <v>91767</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>149</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tallgråticka</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Boletopsis grisea</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Peck) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Abessinien, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>716297</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7330062</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Sture Westerberg</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Håkan Falk</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>91821719</v>
+      </c>
+      <c r="B7" t="n">
+        <v>91795</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Abessinien, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>716336</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7330068</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Sture Westerberg</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Håkan Falk</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>91818103</v>
+      </c>
+      <c r="B8" t="n">
+        <v>77416</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6487</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Blågrå svartspik</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Chaenothecopsis fennica</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Laurila) Tibell</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Varjisån-övre, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>715717</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7330584</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Sture Westerberg</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Håkan Falk</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>